--- a/partial_product_adder/serial_thermometer_binary2scomp_convertor/twos_complement_6bit.xlsx
+++ b/partial_product_adder/serial_thermometer_binary2scomp_convertor/twos_complement_6bit.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
-    <t>Decimal</t>
-  </si>
-  <si>
     <t>2's Complement</t>
   </si>
   <si>
@@ -31,9 +28,6 @@
   </si>
   <si>
     <t>5-bit Binary</t>
-  </si>
-  <si>
-    <t>Hex</t>
   </si>
   <si>
     <t>0A</t>
@@ -70,6 +64,12 @@
   </si>
   <si>
     <t>1F</t>
+  </si>
+  <si>
+    <t>Signed Decimal</t>
+  </si>
+  <si>
+    <t>Hex Equivalent</t>
   </si>
 </sst>
 </file>
@@ -885,32 +885,35 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="14.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
     <col min="4" max="4" width="18.6328125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="16.81640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1097,7 +1100,7 @@
         <v>1010</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -1114,7 +1117,7 @@
         <v>1011</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -1131,7 +1134,7 @@
         <v>1100</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -1148,7 +1151,7 @@
         <v>1101</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -1165,7 +1168,7 @@
         <v>1110</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1182,7 +1185,7 @@
         <v>1111</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -1369,7 +1372,7 @@
         <v>11010</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1386,7 +1389,7 @@
         <v>11011</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1403,7 +1406,7 @@
         <v>11100</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -1420,7 +1423,7 @@
         <v>11101</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1437,7 +1440,7 @@
         <v>11110</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -1454,7 +1457,7 @@
         <v>11111</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -1641,7 +1644,7 @@
         <v>1010</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -1658,7 +1661,7 @@
         <v>1011</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -1675,7 +1678,7 @@
         <v>1100</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -1692,7 +1695,7 @@
         <v>1101</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -1709,7 +1712,7 @@
         <v>1110</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -1726,7 +1729,7 @@
         <v>1111</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -1913,7 +1916,7 @@
         <v>11010</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -1930,7 +1933,7 @@
         <v>11011</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -1947,7 +1950,7 @@
         <v>11100</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -1964,7 +1967,7 @@
         <v>11101</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -1981,7 +1984,7 @@
         <v>11110</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -1998,7 +2001,7 @@
         <v>11111</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
